--- a/docs/mcode-r4/vital-BloodPressure.xlsx
+++ b/docs/mcode-r4/vital-BloodPressure.xlsx
@@ -159,7 +159,8 @@
     <t>vital-BloodPressure</t>
   </si>
   <si>
-    <t>The force of circulating blood on the walls of the arteries.</t>
+    <t>The force of circulating blood on the walls of the arteries.
+Note to FHIR implementers: The blood pressure profile in mCODE is based on the FHIR profile for blood pressure and adds a set of optional elements that can help clinicians interpret the result. Because these elements are optional, any BP that conforms to the current profile also will conform to the FHIR profile, and vice versa.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
@@ -351,14 +352,14 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>precondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/vital-Precondition-extension}
+    <t>preconditioncode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/vital-PreconditionCode-extension}
 </t>
   </si>
   <si>
-    <t>A description of the conditions or context of an observation, for example, under sedation, fasting or post-exercise. A qualifier cannot modify the measurement type; for example, a fasting blood sugar is still a blood sugar.</t>
+    <t>A coded description of the conditions or context of an observation, for example, under sedation, fasting or post-exercise. A qualifier cannot modify the measurement type; for example, a fasting blood sugar is still a blood sugar.</t>
   </si>
   <si>
     <t>Observation.extension.id</t>
@@ -404,7 +405,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/vital-Precondition-extension</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/vital-PreconditionCode-extension</t>
   </si>
   <si>
     <t>Extension.url</t>
